--- a/medicine/Sexualité et sexologie/Epoxy_(bande_dessinée)/Epoxy_(bande_dessinée).xlsx
+++ b/medicine/Sexualité et sexologie/Epoxy_(bande_dessinée)/Epoxy_(bande_dessinée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Epoxy_(bande_dessin%C3%A9e)</t>
+          <t>Epoxy_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Epoxy est une bande dessinée érotique créée en mai 1968 par Paul Cuvelier (dessin) et Jean van Hamme (scénario)[1]. Il s'agit de la première œuvre publiée de Jean van Hamme.
+Epoxy est une bande dessinée érotique créée en mai 1968 par Paul Cuvelier (dessin) et Jean van Hamme (scénario). Il s'agit de la première œuvre publiée de Jean van Hamme.
 Epoxy est une jeune femme qui évolue dans un univers mythologique en étant complètement nue. Chaque séquence de son voyage initiatique est coloriée différemment afin d'en mieux marquer les étapes.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Epoxy_(bande_dessin%C3%A9e)</t>
+          <t>Epoxy_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'elle navigue seule à bord d'un voilier au large d'îles grecques, Epoxy est jetée à la mer à la suite d'un accident avec un yacht qui la repêche aussitôt dans un filet. Une femme aux seins nus, arborant un cache-œil, l'amène alors voir son maître Koltar, qui est décrit comme repoussant mais qui reste caché dans une petite pièce sphérique. Après l'avoir probablement mêlée à ses bacchanales, il la livre en offrande aux anciens dieux.
 C'est alors que commence pour Epoxy une aventure hors du temps. Elle se retrouve échouée sur le rivage d’une contrée mythique, où elle est d'abord enlevée par les Amazones dont la reine Hippolyte la prend pour maîtresse. Puis Héraclès accompagné de Thésée et deux autres personnages masculins viennent pacifiquement demander à Hippolyte sa ceinture d'orichalque. Une des gardes de la reine lui propose de les tuer; la reine refuse, Héraclès étant le fils de Zeus. Hippolyte les reçoit donc avec Epoxy, se moque d'Héraclès qui laisse parler Thésée à sa place, puis elle s'offre à lui; étonnée, Epoxy fait l'amour avec les 3 autres hommes. La garde voit cela, est dégoûtée et sonne l'alarme; Hippolyte est étranglée par Héraclès qui la croit complice. Epoxy s'enfuit avec eux puis couche avec Thésée. Lorsqu'elle se réveille le matin suivant, Thésée l'a abandonnée en pleine nature, ne lui laissant rien d'autre qu'un petit morceau de tissu. Alors qu'elle parcourt les environs, Epoxy manque de se noyer dans une rivière mais elle est secourue par un centaure, Fural, qui tente d'abord de la séduire puis la convie chez les centaures. Mais leur chef, Chiron, rappelle qu'une mortelle n'a pas le droit de venir chez eux et décide qu'Epoxy doit être tuée pour éviter qu'elle ne révèle l'emplacement de leur pays. Fural se rebelle et se sacrifie pour laisser Epoxy prendre la fuite. Des centaures finissent par la capturer et Chiron confie son sort à Delcaïne, la compagne de Fural. Celle-ci fait boire à Epoxy un philtre de soumission pour qu'elle devienne l'offrande des centaures lors des Anthestéries.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Epoxy_(bande_dessin%C3%A9e)</t>
+          <t>Epoxy_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parue en 1968, Epoxy est l'une des premières bandes dessinées pour adultes publiées sans encourir les foudres de la censure. Quatre ans plus tôt, Barbarella, pourtant moins explicite encore, avait été interdite à la vente aux mineurs. Pour autant, il n'y a rien de scabreux dans Epoxy : l'acte sexuel n'est que suggéré et les parties pudiques des personnages sont soigneusement masquées à la vue du lecteur.
 C'est après avoir découvert Barbarella que Paul Cuvelier, le dessinateur de Corentin, lassé des histoires trop sages du Journal de Tintin, aurait demandé cette histoire à Jean van Hamme.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Epoxy_(bande_dessin%C3%A9e)</t>
+          <t>Epoxy_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Epoxy est paru directement en album, en 1968, chez les éditions du Terrain vague dirigées par Éric Losfeld. Composée dans sa première édition en bichromie, cette bande dessinée a ensuite été rééditée en noir et blanc à deux reprises puis, en couleur, chez Lefrancq. Dernièrement, une nouvelle version, recoloriée par Bertrand Denoulet, est parue dans la collection Signé aux éditions Le Lombard. 
 1968 : Epoxy, éd. Le Terrain vague, bichromie
